--- a/bohaterowie razem.xlsx
+++ b/bohaterowie razem.xlsx
@@ -370,42 +370,42 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>D champions</t>
+          <t>D_champions</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>D liczba</t>
+          <t>D_liczba</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>M champions</t>
+          <t>M_champions</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>M liczba</t>
+          <t>M_liczba</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>GM champions</t>
+          <t>GM_champions</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>GM liczba</t>
+          <t>GM_liczba</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>C champions</t>
+          <t>C_champions</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>C liczba</t>
+          <t>C_liczba</t>
         </is>
       </c>
     </row>
@@ -420,43 +420,35 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Annie</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9999</t>
-        </is>
+          <t>Blitzcrank</t>
+        </is>
+      </c>
+      <c r="D2">
+        <v>24849</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>JarvanIV</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7177</t>
-        </is>
+          <t>Vi</t>
+        </is>
+      </c>
+      <c r="F2">
+        <v>25423</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>KaiSa</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>9988</t>
-        </is>
+          <t>Vi</t>
+        </is>
+      </c>
+      <c r="H2">
+        <v>27141</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Soraka</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>9856</t>
-        </is>
+          <t>Vi</t>
+        </is>
+      </c>
+      <c r="J2">
+        <v>27744</v>
       </c>
     </row>
     <row r="3">
@@ -470,43 +462,35 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Lux</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9684</t>
-        </is>
+          <t>Vi</t>
+        </is>
+      </c>
+      <c r="D3">
+        <v>23720</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sona</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>10240</t>
-        </is>
+          <t>Blitzcrank</t>
+        </is>
+      </c>
+      <c r="F3">
+        <v>24610</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>TwistedFate</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>9759</t>
-        </is>
+          <t>Blitzcrank</t>
+        </is>
+      </c>
+      <c r="H3">
+        <v>26083</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>KhaZix</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>9258</t>
-        </is>
+          <t>Blitzcrank</t>
+        </is>
+      </c>
+      <c r="J3">
+        <v>24145</v>
       </c>
     </row>
     <row r="4">
@@ -520,43 +504,35 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Kindred</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
+          <t>Kassadin</t>
+        </is>
+      </c>
+      <c r="D4">
+        <v>23711</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Rakan</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>10438</t>
-        </is>
+          <t>Kassadin</t>
+        </is>
+      </c>
+      <c r="F4">
+        <v>22178</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Mordekaiser</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>9756</t>
-        </is>
+          <t>Kassadin</t>
+        </is>
+      </c>
+      <c r="H4">
+        <v>24003</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Neeko</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>9192</t>
-        </is>
+          <t>Ezreal</t>
+        </is>
+      </c>
+      <c r="J4">
+        <v>23573</v>
       </c>
     </row>
     <row r="5">
@@ -570,43 +546,35 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TwistedFate</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>9576</t>
-        </is>
+          <t>Malphite</t>
+        </is>
+      </c>
+      <c r="D5">
+        <v>22694</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>XinZhao</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8161</t>
-        </is>
+          <t>Ezreal</t>
+        </is>
+      </c>
+      <c r="F5">
+        <v>22084</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Fiora</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>9390</t>
-        </is>
+          <t>Ezreal</t>
+        </is>
+      </c>
+      <c r="H5">
+        <v>23404</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Zoe</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>9026</t>
-        </is>
+          <t>MissFortune</t>
+        </is>
+      </c>
+      <c r="J5">
+        <v>22516</v>
       </c>
     </row>
     <row r="6">
@@ -620,43 +588,35 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sona</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>9257</t>
-        </is>
+          <t>WuKong</t>
+        </is>
+      </c>
+      <c r="D6">
+        <v>21725</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Neeko</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8020</t>
-        </is>
+          <t>MissFortune</t>
+        </is>
+      </c>
+      <c r="F6">
+        <v>21200</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>KhaZix</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>9236</t>
-        </is>
+          <t>WuKong</t>
+        </is>
+      </c>
+      <c r="H6">
+        <v>22986</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Ahri</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>8499</t>
-        </is>
+          <t>Kassadin</t>
+        </is>
+      </c>
+      <c r="J6">
+        <v>21862</v>
       </c>
     </row>
     <row r="7">
@@ -670,43 +630,35 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Poppy</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>9086</t>
-        </is>
+          <t>MissFortune</t>
+        </is>
+      </c>
+      <c r="D7">
+        <v>21504</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Karma</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>12253</t>
-        </is>
+          <t>WuKong</t>
+        </is>
+      </c>
+      <c r="F7">
+        <v>20597</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Fizz</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>9136</t>
-        </is>
+          <t>MissFortune</t>
+        </is>
+      </c>
+      <c r="H7">
+        <v>22850</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Syndra</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>8461</t>
-        </is>
+          <t>Kayle</t>
+        </is>
+      </c>
+      <c r="J7">
+        <v>19330</v>
       </c>
     </row>
     <row r="8">
@@ -720,43 +672,35 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Volibear</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
+          <t>Shen</t>
+        </is>
+      </c>
+      <c r="D8">
+        <v>20965</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Soraka</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>10844</t>
-        </is>
+          <t>Malphite</t>
+        </is>
+      </c>
+      <c r="F8">
+        <v>19494</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Karma</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>9121</t>
-        </is>
+          <t>ChoGath</t>
+        </is>
+      </c>
+      <c r="H8">
+        <v>20907</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Sona</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>8115</t>
-        </is>
+          <t>WuKong</t>
+        </is>
+      </c>
+      <c r="J8">
+        <v>18800</v>
       </c>
     </row>
     <row r="9">
@@ -770,43 +714,35 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Darius</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>8356</t>
-        </is>
+          <t>ChoGath</t>
+        </is>
+      </c>
+      <c r="D9">
+        <v>20937</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Lulu</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>12775</t>
-        </is>
+          <t>ChoGath</t>
+        </is>
+      </c>
+      <c r="F9">
+        <v>18983</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Annie</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>8688</t>
-        </is>
+          <t>Malphite</t>
+        </is>
+      </c>
+      <c r="H9">
+        <v>20901</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>VelKoz</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>8088</t>
-        </is>
+          <t>Malphite</t>
+        </is>
+      </c>
+      <c r="J9">
+        <v>18516</v>
       </c>
     </row>
     <row r="10">
@@ -820,43 +756,35 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DrMundo</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
+          <t>Kayle</t>
+        </is>
+      </c>
+      <c r="D10">
+        <v>19443</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Malphite</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>19494</t>
-        </is>
+          <t>Ashe</t>
+        </is>
+      </c>
+      <c r="F10">
+        <v>18355</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Ekko</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>8090</t>
-        </is>
+          <t>Shen</t>
+        </is>
+      </c>
+      <c r="H10">
+        <v>19266</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
+          <t>ChoGath</t>
+        </is>
+      </c>
+      <c r="J10">
+        <v>18290</v>
       </c>
     </row>
     <row r="11">
@@ -870,43 +798,35 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>XinZhao</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>8182</t>
-        </is>
+          <t>Ezreal</t>
+        </is>
+      </c>
+      <c r="D11">
+        <v>19364</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Blitzcrank</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>24610</t>
-        </is>
+          <t>Kayle</t>
+        </is>
+      </c>
+      <c r="F11">
+        <v>18012</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>JarvanIV</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>7952</t>
-        </is>
+          <t>Jinx</t>
+        </is>
+      </c>
+      <c r="H11">
+        <v>18452</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Rakan</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>7839</t>
-        </is>
+          <t>Ashe</t>
+        </is>
+      </c>
+      <c r="J11">
+        <v>17649</v>
       </c>
     </row>
     <row r="12">
@@ -920,43 +840,35 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Karma</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>8112</t>
-        </is>
+          <t>Jinx</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>18804</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Vi</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>25423</t>
-        </is>
+          <t>Shen</t>
+        </is>
+      </c>
+      <c r="F12">
+        <v>17495</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Ahri</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>7167</t>
-        </is>
+          <t>Kayle</t>
+        </is>
+      </c>
+      <c r="H12">
+        <v>18018</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Xayah</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>7398</t>
-        </is>
+          <t>Shen</t>
+        </is>
+      </c>
+      <c r="J12">
+        <v>17453</v>
       </c>
     </row>
     <row r="13">
@@ -970,43 +882,35 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Fiora</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>8006</t>
-        </is>
+          <t>Ashe</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>18407</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>Jinx</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>17165</t>
-        </is>
+      <c r="F13">
+        <v>17165</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>XinZhao</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>6965</t>
-        </is>
+          <t>Ashe</t>
+        </is>
+      </c>
+      <c r="H13">
+        <v>17904</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>XinZhao</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>6843</t>
-        </is>
+          <t>Jinx</t>
+        </is>
+      </c>
+      <c r="J13">
+        <v>16850</v>
       </c>
     </row>
     <row r="14">
@@ -1020,43 +924,35 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Leona</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>7904</t>
-        </is>
+          <t>Irelia</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>17161</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ChoGath</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>18983</t>
-        </is>
+          <t>Irelia</t>
+        </is>
+      </c>
+      <c r="F14">
+        <v>15078</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Syndra</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>6797</t>
-        </is>
+          <t>Irelia</t>
+        </is>
+      </c>
+      <c r="H14">
+        <v>15420</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>JarvanIV</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>6231</t>
-        </is>
+          <t>Thresh</t>
+        </is>
+      </c>
+      <c r="J14">
+        <v>16403</v>
       </c>
     </row>
     <row r="15">
@@ -1070,43 +966,35 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Nautilus</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
+          <t>Jayce</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>16039</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Kayle</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>18012</t>
-        </is>
+          <t>Jayce</t>
+        </is>
+      </c>
+      <c r="F15">
+        <v>15013</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Neeko</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>6252</t>
-        </is>
+          <t>Thresh</t>
+        </is>
+      </c>
+      <c r="H15">
+        <v>15390</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Xerath</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>6227</t>
-        </is>
+          <t>Irelia</t>
+        </is>
+      </c>
+      <c r="J15">
+        <v>16084</v>
       </c>
     </row>
     <row r="16">
@@ -1120,43 +1008,35 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Brand</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
+          <t>Graves</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>14708</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MissFortune</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>21200</t>
-        </is>
+          <t>Thresh</t>
+        </is>
+      </c>
+      <c r="F16">
+        <v>14170</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Darius</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>5514</t>
-        </is>
+          <t>Graves</t>
+        </is>
+      </c>
+      <c r="H16">
+        <v>15360</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Darius</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>4853</t>
-        </is>
+          <t>Lux</t>
+        </is>
+      </c>
+      <c r="J16">
+        <v>16046</v>
       </c>
     </row>
     <row r="17">
@@ -1170,43 +1050,35 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Renekton</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
+          <t>Rakan</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>13970</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Ezreal</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>22084</t>
-        </is>
+          <t>Lux</t>
+        </is>
+      </c>
+      <c r="F17">
+        <v>14160</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Gangplank</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>4969</t>
-        </is>
+          <t>Jayce</t>
+        </is>
+      </c>
+      <c r="H17">
+        <v>14294</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>AurelionSol</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>4433</t>
-        </is>
+          <t>Lucian</t>
+        </is>
+      </c>
+      <c r="J17">
+        <v>14765</v>
       </c>
     </row>
     <row r="18">
@@ -1220,43 +1092,35 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Caitlyn</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>7344</t>
-        </is>
+          <t>Xayah</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>13438</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>AurelionSol</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4322</t>
-        </is>
+          <t>Jhin</t>
+        </is>
+      </c>
+      <c r="F18">
+        <v>13635</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Xerath</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>4888</t>
-        </is>
+          <t>Lux</t>
+        </is>
+      </c>
+      <c r="H18">
+        <v>13748</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>TwistedFate</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>4348</t>
-        </is>
+          <t>Jhin</t>
+        </is>
+      </c>
+      <c r="J18">
+        <v>14561</v>
       </c>
     </row>
     <row r="19">
@@ -1270,43 +1134,35 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Vladimir</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
+          <t>Rumble</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>13287</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Leona</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>11780</t>
-        </is>
+          <t>Graves</t>
+        </is>
+      </c>
+      <c r="F19">
+        <v>13418</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>AurelionSol</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>4824</t>
-        </is>
+          <t>Poppy</t>
+        </is>
+      </c>
+      <c r="H19">
+        <v>13257</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Yasuo</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>4131</t>
-        </is>
+          <t>Shaco</t>
+        </is>
+      </c>
+      <c r="J19">
+        <v>14506</v>
       </c>
     </row>
     <row r="20">
@@ -1320,43 +1176,35 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Ekko</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>7019</t>
-        </is>
+          <t>Thresh</t>
+        </is>
+      </c>
+      <c r="D20">
+        <v>12286</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Mordekaiser</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>11576</t>
-        </is>
+          <t>Lulu</t>
+        </is>
+      </c>
+      <c r="F20">
+        <v>12775</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Caitlyn</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>4224</t>
-        </is>
+          <t>Jhin</t>
+        </is>
+      </c>
+      <c r="H20">
+        <v>12477</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>MasterYi</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>3821</t>
-        </is>
+          <t>Lulu</t>
+        </is>
+      </c>
+      <c r="J20">
+        <v>14119</v>
       </c>
     </row>
     <row r="21">
@@ -1370,43 +1218,35 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Soraka</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>7002</t>
-        </is>
+          <t>KhaZix</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>12194</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Jayce</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>15013</t>
-        </is>
+          <t>Lucian</t>
+        </is>
+      </c>
+      <c r="F21">
+        <v>12765</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
+          <t>Lulu</t>
+        </is>
+      </c>
+      <c r="H21">
+        <v>12011</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Vi</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>27744</t>
-        </is>
+          <t>Karma</t>
+        </is>
+      </c>
+      <c r="J21">
+        <v>14083</v>
       </c>
     </row>
   </sheetData>
